--- a/xlsx/你 (时代年度风云人物)_intext.xlsx
+++ b/xlsx/你 (时代年度风云人物)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>你 (时代年度风云人物)</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_你 (时代年度风云人物)</t>
+    <t>时代 (杂志)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_你 (时代年度风云人物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%B6%B2%E8%B7%AF%E6%9B%B8%E5%BA%97</t>
   </si>
   <si>
-    <t>亞馬遜網路書店</t>
+    <t>亚马逊网路书店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%AA%8C</t>
   </si>
   <si>
-    <t>網誌</t>
+    <t>网志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>總編輯</t>
+    <t>总编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IMac</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A8%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國全國廣播公司</t>
+    <t>美国全国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%88%88%C2%B7%E6%9F%A5%E9%9F%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>烏戈·查韋斯</t>
+    <t>乌戈·查韦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%93%88%E8%8C%82%E5%BE%B7%C2%B7%E8%89%BE%E5%93%88%E8%BF%88%E8%BF%AA%E5%86%85%E8%B4%BE%E5%BE%B7</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>好撒馬利亞人</t>
+    <t>好撒马利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%AB%BE</t>
   </si>
   <si>
-    <t>波諾</t>
+    <t>波诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E7%9B%96%E8%8C%A8</t>
@@ -185,25 +185,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>時代年度風雲人物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%88%BE%C2%B7%E6%99%AE%E4%BA%AC</t>
   </si>
   <si>
-    <t>弗拉基米爾·普京</t>
+    <t>弗拉基米尔·普京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾特·克萊斯勒</t>
+    <t>沃尔特·克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%978%E5%8F%B7</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>芭芭拉·喬丹</t>
+    <t>芭芭拉·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E7%AE%80%C2%B7%E9%87%91</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B0%8F%E5%B9%B3</t>
@@ -575,9 +572,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
   </si>
   <si>
-    <t>个人电脑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%C2%B7%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%BD%97%E7%BB%B4%E5%A5%87%C2%B7%E5%AE%89%E5%BE%B7%E7%BD%97%E6%B3%A2%E5%A4%AB</t>
   </si>
   <si>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E8%93%89%C2%B7%E8%89%BE%E5%A5%8E%E8%AB%BE</t>
   </si>
   <si>
-    <t>柯拉蓉·艾奎諾</t>
+    <t>柯拉蓉·艾奎诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%B0%A2%E5%B0%94%E7%9B%96%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
@@ -647,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯迪·朱利安尼</t>
+    <t>鲁迪·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E5%AF%86%E8%80%85</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E7%9A%84%E6%AF%94%E5%96%BB</t>
   </si>
   <si>
-    <t>好撒馬利亞人的比喻</t>
+    <t>好撒马利亚人的比喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%AF%BA</t>
@@ -731,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%A5%BF%E9%9D%9E%E4%BC%8A%E6%B3%A2%E6%8B%89%E7%97%85%E6%AF%92%E7%96%AB%E6%83%85</t>
@@ -749,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Me_Too</t>
@@ -1944,7 +1938,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1970,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2028,10 +2022,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2057,10 +2051,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2086,10 +2080,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2115,10 +2109,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2144,10 +2138,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2173,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2202,10 +2196,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2231,10 +2225,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2260,10 +2254,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2289,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2318,10 +2312,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2347,10 +2341,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2376,10 +2370,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2405,10 +2399,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2434,10 +2428,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2463,10 +2457,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2492,10 +2486,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2521,10 +2515,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2550,10 +2544,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2579,10 +2573,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2608,10 +2602,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2637,10 +2631,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2666,10 +2660,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2695,10 +2689,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2724,10 +2718,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2753,10 +2747,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2782,10 +2776,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2811,10 +2805,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2840,10 +2834,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2869,10 +2863,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2898,10 +2892,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2927,10 +2921,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2956,10 +2950,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2985,10 +2979,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3014,10 +3008,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3043,10 +3037,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3072,10 +3066,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3101,10 +3095,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3130,10 +3124,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3159,10 +3153,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3188,10 +3182,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3217,10 +3211,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3246,10 +3240,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3275,10 +3269,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3304,10 +3298,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3333,10 +3327,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3362,10 +3356,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3391,10 +3385,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3420,10 +3414,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3449,10 +3443,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3478,10 +3472,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3507,10 +3501,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3536,10 +3530,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3565,10 +3559,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3594,10 +3588,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3623,10 +3617,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3652,10 +3646,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3681,10 +3675,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3710,10 +3704,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3739,10 +3733,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3768,10 +3762,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3797,10 +3791,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3826,10 +3820,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3855,10 +3849,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3884,10 +3878,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3913,10 +3907,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3942,10 +3936,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3971,10 +3965,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4000,10 +3994,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4029,10 +4023,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4058,10 +4052,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4087,10 +4081,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4116,10 +4110,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4145,10 +4139,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4174,10 +4168,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4203,10 +4197,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4232,10 +4226,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4261,10 +4255,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4290,10 +4284,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4319,10 +4313,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4348,10 +4342,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4377,10 +4371,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4406,10 +4400,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4435,10 +4429,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F115" t="s">
         <v>91</v>
-      </c>
-      <c r="F115" t="s">
-        <v>92</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4464,10 +4458,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4493,10 +4487,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4522,10 +4516,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4551,10 +4545,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4580,10 +4574,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4609,10 +4603,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4638,10 +4632,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4667,10 +4661,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4696,10 +4690,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4725,10 +4719,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4754,10 +4748,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4783,10 +4777,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
